--- a/SPREADSHEETS/Survey Form.xlsx
+++ b/SPREADSHEETS/Survey Form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="4" r:id="rId1"/>
@@ -1869,7 +1869,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1877,6 +1877,60 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1901,13 +1955,67 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="63">
     <cellStyle name="Buena 2" xfId="6"/>
     <cellStyle name="Comma 2" xfId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Percent 2" xfId="5"/>
@@ -2257,8 +2365,8 @@
   </sheetPr>
   <dimension ref="A1:G557"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C515" sqref="C515:C556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0"/>
